--- a/excel/bin/Debug/net7.0/output.xlsx
+++ b/excel/bin/Debug/net7.0/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
     <t>yavuzvarnali@yavuzvarnali.com</t>
   </si>
@@ -387,6 +387,525 @@
   </si>
   <si>
     <t>chart@sea-chart.net</t>
+  </si>
+  <si>
+    <t>chartering@niavigrains.gr</t>
+  </si>
+  <si>
+    <t>chart@ernashipping.com</t>
+  </si>
+  <si>
+    <t>chart@kplines.com</t>
+  </si>
+  <si>
+    <t>dry@shiplinks.net</t>
+  </si>
+  <si>
+    <t>m.gouda@varamar.com</t>
+  </si>
+  <si>
+    <t>chartering@nikomarshipping.uk</t>
+  </si>
+  <si>
+    <t>chartering@regencyship.com</t>
+  </si>
+  <si>
+    <t>fix@alkchart.com</t>
+  </si>
+  <si>
+    <t>chartering@gujarathiempire.in</t>
+  </si>
+  <si>
+    <t>chart@lemafcc.com</t>
+  </si>
+  <si>
+    <t>kuruoglu@kuruoglushipping.com</t>
+  </si>
+  <si>
+    <t>info@e.bcsshipping.com</t>
+  </si>
+  <si>
+    <t>chartering@uniquebulk.com</t>
+  </si>
+  <si>
+    <t>shipping@myadria.net</t>
+  </si>
+  <si>
+    <t>ukragroconsult@ukragroconsult.com</t>
+  </si>
+  <si>
+    <t>Fix@leviathanchartering.com</t>
+  </si>
+  <si>
+    <t>chart@nazekship.com</t>
+  </si>
+  <si>
+    <t>chartering@lazershipping.com</t>
+  </si>
+  <si>
+    <t>positions@news.dship-carriers.com</t>
+  </si>
+  <si>
+    <t>chartering@beyazshipping.com</t>
+  </si>
+  <si>
+    <t>chartering@bharatiship.com</t>
+  </si>
+  <si>
+    <t>chartering@angorashipping.com</t>
+  </si>
+  <si>
+    <t>info@dadaylilarshipping.com</t>
+  </si>
+  <si>
+    <t>chartering@yildirimholding.com.tr</t>
+  </si>
+  <si>
+    <t>chartering@yilmar.com</t>
+  </si>
+  <si>
+    <t>chartering@bigor-ltd.com</t>
+  </si>
+  <si>
+    <t>noreply@gundemshipping.com</t>
+  </si>
+  <si>
+    <t>chartering@tfgshipping.net</t>
+  </si>
+  <si>
+    <t>fix@thanglongmarine.com</t>
+  </si>
+  <si>
+    <t>chartering@ewship.com</t>
+  </si>
+  <si>
+    <t>chartering@bitashipping.com</t>
+  </si>
+  <si>
+    <t>gerdogan@sofuoglushipping.com</t>
+  </si>
+  <si>
+    <t>chartering@sofuoglushipping.com</t>
+  </si>
+  <si>
+    <t>hkalkavan@hkalkavan.com</t>
+  </si>
+  <si>
+    <t>tonnages@gujarathiempire.in</t>
+  </si>
+  <si>
+    <t>drychart@rockmarine.gr</t>
+  </si>
+  <si>
+    <t>orders@hellaschart.gr</t>
+  </si>
+  <si>
+    <t>dry@manisabulk.com</t>
+  </si>
+  <si>
+    <t>chartering@prusias.net</t>
+  </si>
+  <si>
+    <t>chartering@dmvship.com</t>
+  </si>
+  <si>
+    <t>Chartering@alpina.dk</t>
+  </si>
+  <si>
+    <t>pmx@slmbulk.com</t>
+  </si>
+  <si>
+    <t>perioddesk@gujarathiempire.in</t>
+  </si>
+  <si>
+    <t>chartering@flamamaritime.com</t>
+  </si>
+  <si>
+    <t>chartering@elamira.org</t>
+  </si>
+  <si>
+    <t>cargoes@gujarathiempire.in</t>
+  </si>
+  <si>
+    <t>fixcargo@outlook.com</t>
+  </si>
+  <si>
+    <t>drycargo@aztamshipbrokers.com</t>
+  </si>
+  <si>
+    <t>mail@uf-shipping.com</t>
+  </si>
+  <si>
+    <t>linjian.li@aslbulkhk.com</t>
+  </si>
+  <si>
+    <t>chartering@saigonbulkcarriers.com</t>
+  </si>
+  <si>
+    <t>pmx@basimchart.com</t>
+  </si>
+  <si>
+    <t>nkcship@gmail.com</t>
+  </si>
+  <si>
+    <t>chartering@kcseatics.com</t>
+  </si>
+  <si>
+    <t>sinop@sinopshipping.com</t>
+  </si>
+  <si>
+    <t>dlshpg@126.com</t>
+  </si>
+  <si>
+    <t>broker@primeoceanic.in</t>
+  </si>
+  <si>
+    <t>chart@minadex.biz</t>
+  </si>
+  <si>
+    <t>polsteambrokers@polsteam.com.pl</t>
+  </si>
+  <si>
+    <t>chartering@agship.net</t>
+  </si>
+  <si>
+    <t>r1h5PdjkVYDn1B2M2Y8AsgTpseamus@pkt.gr</t>
+  </si>
+  <si>
+    <t>seamus@pkt.gr</t>
+  </si>
+  <si>
+    <t>chartering@skyhishipping.com</t>
+  </si>
+  <si>
+    <t>chartering@alcoschartering.com</t>
+  </si>
+  <si>
+    <t>aron@promptitude.cn</t>
+  </si>
+  <si>
+    <t>dry@amgchartering.com</t>
+  </si>
+  <si>
+    <t>handy@thanglongmarine.com</t>
+  </si>
+  <si>
+    <t>breakbulk@gujarathiempire.in</t>
+  </si>
+  <si>
+    <t>tuncer@uluship.com</t>
+  </si>
+  <si>
+    <t>chartering@spanopoulos-group.com</t>
+  </si>
+  <si>
+    <t>chartering@ipc-adci.com</t>
+  </si>
+  <si>
+    <t>liqiufeng@hongglory.com</t>
+  </si>
+  <si>
+    <t>shailesh@tristar-transport.com</t>
+  </si>
+  <si>
+    <t>hartering@exoduschartering.info</t>
+  </si>
+  <si>
+    <t>noreply@marinetraffic.com</t>
+  </si>
+  <si>
+    <t>n.diamantopoulos@varamar.com</t>
+  </si>
+  <si>
+    <t>chart@tavriaseachart.com</t>
+  </si>
+  <si>
+    <t>chartering@unibalts.lv</t>
+  </si>
+  <si>
+    <t>tangfengnan@fz-highton.com</t>
+  </si>
+  <si>
+    <t>chartering@cundachartering.com</t>
+  </si>
+  <si>
+    <t>all@aviori.eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seamus@pkt.gr </t>
+  </si>
+  <si>
+    <t>chartering@alertaplus.si</t>
+  </si>
+  <si>
+    <t>aron@velocity.org.cn</t>
+  </si>
+  <si>
+    <t>wl@fz-highton.com</t>
+  </si>
+  <si>
+    <t>ty@fz-highton.com</t>
+  </si>
+  <si>
+    <t>2677736261@qq.com</t>
+  </si>
+  <si>
+    <t>chartering@teraship.com</t>
+  </si>
+  <si>
+    <t>hammam6@gmail.com</t>
+  </si>
+  <si>
+    <t>mpp-bulk@hansehamburg.de</t>
+  </si>
+  <si>
+    <t>gruznov@gruznov.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">З П*   KPLines &lt;chart@kplines.com</t>
+  </si>
+  <si>
+    <t>charter@fuyuanmarine.com.cn</t>
+  </si>
+  <si>
+    <t>chartering@graincom-shipping.com</t>
+  </si>
+  <si>
+    <t>bjoern.ihlenfeld@oldendorff.com</t>
+  </si>
+  <si>
+    <t>zahid.dxb@aahilshipping.com</t>
+  </si>
+  <si>
+    <t>&lt;hkalkavan@hkalkavan.com</t>
+  </si>
+  <si>
+    <t>сhartering@marinesko.org</t>
+  </si>
+  <si>
+    <t>grain@bsforum.ru</t>
+  </si>
+  <si>
+    <t>dungship@gmail.com</t>
+  </si>
+  <si>
+    <t>chartering@7smarine.com</t>
+  </si>
+  <si>
+    <t>cem@yavuzvarnali.com.tr</t>
+  </si>
+  <si>
+    <t>fatih@vectorchart.com</t>
+  </si>
+  <si>
+    <t>mukesh.jha@stevinshipping.com</t>
+  </si>
+  <si>
+    <t>ilya.tutygin@ingriashipping.com</t>
+  </si>
+  <si>
+    <t>ops@vectorchart.com</t>
+  </si>
+  <si>
+    <t>DAlekseev@fesco.com</t>
+  </si>
+  <si>
+    <t>bbk@makarashipping.com</t>
+  </si>
+  <si>
+    <t>imports@mailchimp.com</t>
+  </si>
+  <si>
+    <t>zahraaalshaawi@gmail.com</t>
+  </si>
+  <si>
+    <t>info@vivaconsult.ru</t>
+  </si>
+  <si>
+    <t>info@breakbulkevent.com</t>
+  </si>
+  <si>
+    <t>tbc1@mail.ru</t>
+  </si>
+  <si>
+    <t>info@vantageships.com</t>
+  </si>
+  <si>
+    <t>operations_saabtradingandshipping@outlook.com</t>
+  </si>
+  <si>
+    <t>vittorio@manisabulk.com</t>
+  </si>
+  <si>
+    <t>rkanzaki@mrh.biglobe.ne.jp</t>
+  </si>
+  <si>
+    <t>chartering@bpishipping.com</t>
+  </si>
+  <si>
+    <t>serena06@serenapeng.cn</t>
+  </si>
+  <si>
+    <t>chartering@bonchartshipping.com</t>
+  </si>
+  <si>
+    <t>chartering@mnfchart.gr</t>
+  </si>
+  <si>
+    <t>chartering@pgeshipping.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?     ь dУ?</t>
+  </si>
+  <si>
+    <t>llc.avangard-oil@mail.ru</t>
+  </si>
+  <si>
+    <t>silvia.p@internationalmaritimetraining.online</t>
+  </si>
+  <si>
+    <t>dania@didonshipping.com</t>
+  </si>
+  <si>
+    <t>admin@didonshipping.com</t>
+  </si>
+  <si>
+    <t>yb@fz-highton.com</t>
+  </si>
+  <si>
+    <t>coaster@alcostransport.com</t>
+  </si>
+  <si>
+    <t>aron@aronbryant001.top</t>
+  </si>
+  <si>
+    <t>czk@fz-highton.com</t>
+  </si>
+  <si>
+    <t>chartering@kopuzlar.co.uk</t>
+  </si>
+  <si>
+    <t>no-reply@gundemshipping.com</t>
+  </si>
+  <si>
+    <t>info@azshipping.co</t>
+  </si>
+  <si>
+    <t>chartering@annecyshipping.com</t>
+  </si>
+  <si>
+    <t>drybulk.islander@gmail.com</t>
+  </si>
+  <si>
+    <t>aron@gratified.cn</t>
+  </si>
+  <si>
+    <t>chart@dreamshipping.ru</t>
+  </si>
+  <si>
+    <t>dunya@dunyaship.com</t>
+  </si>
+  <si>
+    <t>info@thefreight.net</t>
+  </si>
+  <si>
+    <t>tanker@nazekship.com</t>
+  </si>
+  <si>
+    <t>burak@regencyship.com</t>
+  </si>
+  <si>
+    <t>chartering@silyonshipping.com.tr</t>
+  </si>
+  <si>
+    <t>flamamaritime@posta.jetmail.com.tr</t>
+  </si>
+  <si>
+    <t>chartering@seawind.com.hk</t>
+  </si>
+  <si>
+    <t>rohitsharmaseo92@gmail.com</t>
+  </si>
+  <si>
+    <t>alex.skraglenko@bk.ru</t>
+  </si>
+  <si>
+    <t>royalevershipping@gmail.com</t>
+  </si>
+  <si>
+    <t>info@polarisoffshore.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ё Оы*   Shiplinks, New Delhi &lt;dry@shiplinks.net</t>
+  </si>
+  <si>
+    <t>hello@fastmarkets.com</t>
+  </si>
+  <si>
+    <t>deepsea@alcostransport.com</t>
+  </si>
+  <si>
+    <t>Щyavuzvarnali@yavuzvarnali.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> j( Оъ*   KPLines &lt;chart@kplines.com</t>
+  </si>
+  <si>
+    <t>Minhdang@hdmaritime.com.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. Оъ*   PRIME &lt;broker@primeoceanic.in</t>
+  </si>
+  <si>
+    <t>dry@amgchartering.com fosdamietta</t>
+  </si>
+  <si>
+    <t>hart@nazekship.com</t>
+  </si>
+  <si>
+    <t>info@kuzeyship.com</t>
+  </si>
+  <si>
+    <t>chartering@vimasms.com</t>
+  </si>
+  <si>
+    <t>chartering@yildizdeniz.com.tr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chart@minadex.biz</t>
+  </si>
+  <si>
+    <t>arnoldmora222@gmail.com</t>
+  </si>
+  <si>
+    <t>fixchrt@bk.ru</t>
+  </si>
+  <si>
+    <t>fix@posbulk.com</t>
+  </si>
+  <si>
+    <t>chartering@ogalhk.com</t>
+  </si>
+  <si>
+    <t>aron@speedyx.cn</t>
+  </si>
+  <si>
+    <t>chartering@ibharms.com</t>
+  </si>
+  <si>
+    <t>kaminskaya@dorado-sa.ru</t>
+  </si>
+  <si>
+    <t>ry@shiplinks.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Оу    Aenav - Chartering &lt;chartering@aenav.com</t>
+  </si>
+  <si>
+    <t>яяяя SFODf9pHOMK4 Chartering GTCTO &lt;chartering@gtcto.com</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -432,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B123"/>
+  <dimension ref="A1:B296"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1422,6 +1941,1390 @@
         <v>1</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/excel/bin/Debug/net7.0/output.xlsx
+++ b/excel/bin/Debug/net7.0/output.xlsx
@@ -12,33 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
   <si>
     <t>yavuzvarnali@yavuzvarnali.com</t>
   </si>
   <si>
+    <t>Не определено</t>
+  </si>
+  <si>
+    <t>chart@kuzeyshipping.com</t>
+  </si>
+  <si>
+    <t>Судовладельцы</t>
+  </si>
+  <si>
+    <t>chartering@horizonmar.com</t>
+  </si>
+  <si>
+    <t>chartering@armatorshipping.com</t>
+  </si>
+  <si>
+    <t>chartering@navisone.ru</t>
+  </si>
+  <si>
+    <t>pacific@goldenmaritime.net</t>
+  </si>
+  <si>
+    <t>joshua@avshipbrokers.com</t>
+  </si>
+  <si>
     <t>Брокеры</t>
-  </si>
-  <si>
-    <t>chart@kuzeyshipping.com</t>
-  </si>
-  <si>
-    <t>Судовладельцы</t>
-  </si>
-  <si>
-    <t>chartering@horizonmar.com</t>
-  </si>
-  <si>
-    <t>chartering@armatorshipping.com</t>
-  </si>
-  <si>
-    <t>chartering@navisone.ru</t>
-  </si>
-  <si>
-    <t>pacific@goldenmaritime.net</t>
-  </si>
-  <si>
-    <t>joshua@avshipbrokers.com</t>
   </si>
   <si>
     <t>broker.tgsl@gmail.com</t>
@@ -1010,28 +1013,28 @@
         <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>1</v>
@@ -1039,7 +1042,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>1</v>
@@ -1047,7 +1050,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>1</v>
@@ -1055,7 +1058,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>3</v>
@@ -1063,7 +1066,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>3</v>
@@ -1071,7 +1074,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>1</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>1</v>
@@ -1087,7 +1090,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>1</v>
@@ -1095,7 +1098,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>3</v>
@@ -1103,7 +1106,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>1</v>
@@ -1111,7 +1114,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>3</v>
@@ -1119,7 +1122,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>1</v>
@@ -1127,7 +1130,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>1</v>
@@ -1135,15 +1138,15 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>3</v>
@@ -1151,7 +1154,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>3</v>
@@ -1159,7 +1162,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>1</v>
@@ -1167,7 +1170,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>1</v>
@@ -1175,7 +1178,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>1</v>
@@ -1183,7 +1186,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>3</v>
@@ -1191,7 +1194,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>1</v>
@@ -1199,7 +1202,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>3</v>
@@ -1207,7 +1210,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>1</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>1</v>
@@ -1223,7 +1226,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>1</v>
@@ -1231,7 +1234,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>1</v>
@@ -1239,7 +1242,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>3</v>
@@ -1247,7 +1250,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>1</v>
@@ -1255,7 +1258,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>3</v>
@@ -1263,15 +1266,15 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>3</v>
@@ -1279,15 +1282,15 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>1</v>
@@ -1295,7 +1298,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>1</v>
@@ -1303,7 +1306,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>1</v>
@@ -1311,7 +1314,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>1</v>
@@ -1319,7 +1322,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>1</v>
@@ -1327,23 +1330,23 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>3</v>
@@ -1351,7 +1354,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>1</v>
@@ -1359,7 +1362,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>1</v>
@@ -1367,7 +1370,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>1</v>
@@ -1375,7 +1378,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>1</v>
@@ -1383,7 +1386,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>1</v>
@@ -1391,7 +1394,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>1</v>
@@ -1399,15 +1402,15 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>1</v>
@@ -1415,7 +1418,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>1</v>
@@ -1423,7 +1426,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>3</v>
@@ -1431,7 +1434,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>3</v>
@@ -1439,7 +1442,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>1</v>
@@ -1447,7 +1450,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>1</v>
@@ -1455,7 +1458,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>3</v>
@@ -1463,7 +1466,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>1</v>
@@ -1471,7 +1474,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>3</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>3</v>
@@ -1487,7 +1490,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>1</v>
@@ -1495,7 +1498,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>3</v>
@@ -1503,7 +1506,7 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>1</v>
@@ -1511,7 +1514,7 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>3</v>
@@ -1519,7 +1522,7 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>1</v>
@@ -1527,7 +1530,7 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>3</v>
@@ -1535,7 +1538,7 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>3</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>3</v>
@@ -1551,7 +1554,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>1</v>
@@ -1559,7 +1562,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>1</v>
@@ -1567,15 +1570,15 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>1</v>
@@ -1583,7 +1586,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>3</v>
@@ -1591,7 +1594,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>3</v>
@@ -1599,7 +1602,7 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>3</v>
@@ -1607,7 +1610,7 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>3</v>
@@ -1615,7 +1618,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>1</v>
@@ -1623,7 +1626,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>1</v>
@@ -1631,7 +1634,7 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>3</v>
@@ -1639,7 +1642,7 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>3</v>
@@ -1647,15 +1650,15 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>1</v>
@@ -1663,7 +1666,7 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>1</v>
@@ -1671,7 +1674,7 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>1</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>3</v>
@@ -1687,7 +1690,7 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>3</v>
@@ -1695,15 +1698,15 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>1</v>
@@ -1711,7 +1714,7 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>1</v>
@@ -1719,7 +1722,7 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>3</v>
@@ -1727,7 +1730,7 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>1</v>
@@ -1735,7 +1738,7 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>1</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>3</v>
@@ -1751,7 +1754,7 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>1</v>
@@ -1759,7 +1762,7 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>3</v>
@@ -1767,7 +1770,7 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>1</v>
@@ -1775,7 +1778,7 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>1</v>
@@ -1783,7 +1786,7 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>1</v>
@@ -1791,7 +1794,7 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>1</v>
@@ -1799,7 +1802,7 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>1</v>
@@ -1807,7 +1810,7 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>3</v>
@@ -1815,15 +1818,15 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>3</v>
@@ -1831,7 +1834,7 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>1</v>
@@ -1839,7 +1842,7 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>1</v>
@@ -1847,7 +1850,7 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>1</v>
@@ -1855,7 +1858,7 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>1</v>
@@ -1863,7 +1866,7 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>1</v>
@@ -1871,7 +1874,7 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>3</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>1</v>
@@ -1887,7 +1890,7 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>3</v>
@@ -1895,7 +1898,7 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>1</v>
@@ -1903,7 +1906,7 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>1</v>
@@ -1911,7 +1914,7 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>1</v>
@@ -1919,7 +1922,7 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>1</v>
@@ -1927,7 +1930,7 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>1</v>
@@ -1935,15 +1938,15 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>1</v>
@@ -1951,7 +1954,7 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>3</v>
@@ -1959,7 +1962,7 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>1</v>
@@ -1967,7 +1970,7 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>3</v>
@@ -1975,7 +1978,7 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>1</v>
@@ -1983,7 +1986,7 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>3</v>
@@ -1991,7 +1994,7 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>3</v>
@@ -1999,7 +2002,7 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>1</v>
@@ -2007,7 +2010,7 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>1</v>
@@ -2015,7 +2018,7 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>1</v>
@@ -2023,7 +2026,7 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>3</v>
@@ -2031,7 +2034,7 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>3</v>
@@ -2039,7 +2042,7 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B136" s="0" t="s">
         <v>1</v>
@@ -2047,7 +2050,7 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>3</v>
@@ -2055,7 +2058,7 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>1</v>
@@ -2063,7 +2066,7 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>1</v>
@@ -2071,7 +2074,7 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>3</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>3</v>
@@ -2087,7 +2090,7 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B142" s="0" t="s">
         <v>3</v>
@@ -2095,7 +2098,7 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B143" s="0" t="s">
         <v>3</v>
@@ -2103,7 +2106,7 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B144" s="0" t="s">
         <v>3</v>
@@ -2111,7 +2114,7 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>3</v>
@@ -2119,7 +2122,7 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B146" s="0" t="s">
         <v>3</v>
@@ -2127,7 +2130,7 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>1</v>
@@ -2135,7 +2138,7 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>1</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>1</v>
@@ -2151,7 +2154,7 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>3</v>
@@ -2159,7 +2162,7 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>3</v>
@@ -2167,7 +2170,7 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>1</v>
@@ -2175,7 +2178,7 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>3</v>
@@ -2183,7 +2186,7 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>3</v>
@@ -2191,7 +2194,7 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>3</v>
@@ -2199,7 +2202,7 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>3</v>
@@ -2207,7 +2210,7 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>1</v>
@@ -2215,7 +2218,7 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B158" s="0" t="s">
         <v>1</v>
@@ -2223,7 +2226,7 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B159" s="0" t="s">
         <v>1</v>
@@ -2231,7 +2234,7 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B160" s="0" t="s">
         <v>1</v>
@@ -2239,7 +2242,7 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B161" s="0" t="s">
         <v>1</v>
@@ -2247,7 +2250,7 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>1</v>
@@ -2255,7 +2258,7 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>3</v>
@@ -2263,7 +2266,7 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B164" s="0" t="s">
         <v>1</v>
@@ -2271,7 +2274,7 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B165" s="0" t="s">
         <v>1</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>1</v>
@@ -2287,7 +2290,7 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B167" s="0" t="s">
         <v>1</v>
@@ -2295,7 +2298,7 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B168" s="0" t="s">
         <v>1</v>
@@ -2303,31 +2306,31 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B172" s="0" t="s">
         <v>3</v>
@@ -2335,7 +2338,7 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B173" s="0" t="s">
         <v>1</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B174" s="0" t="s">
         <v>1</v>
@@ -2351,7 +2354,7 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B175" s="0" t="s">
         <v>1</v>
@@ -2359,7 +2362,7 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>3</v>
@@ -2367,15 +2370,15 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B178" s="0" t="s">
         <v>3</v>
@@ -2383,7 +2386,7 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B179" s="0" t="s">
         <v>1</v>
@@ -2391,15 +2394,15 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B181" s="0" t="s">
         <v>1</v>
@@ -2407,15 +2410,15 @@
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B183" s="0" t="s">
         <v>3</v>
@@ -2423,23 +2426,23 @@
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B186" s="0" t="s">
         <v>3</v>
@@ -2447,7 +2450,7 @@
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B187" s="0" t="s">
         <v>1</v>
@@ -2455,7 +2458,7 @@
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B188" s="0" t="s">
         <v>1</v>
@@ -2463,7 +2466,7 @@
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B189" s="0" t="s">
         <v>1</v>
@@ -2471,7 +2474,7 @@
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B190" s="0" t="s">
         <v>3</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B191" s="0" t="s">
         <v>1</v>
@@ -2487,7 +2490,7 @@
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B192" s="0" t="s">
         <v>3</v>
@@ -2495,7 +2498,7 @@
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B193" s="0" t="s">
         <v>1</v>
@@ -2503,7 +2506,7 @@
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B194" s="0" t="s">
         <v>1</v>
@@ -2511,7 +2514,7 @@
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B195" s="0" t="s">
         <v>1</v>
@@ -2519,15 +2522,15 @@
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B197" s="0" t="s">
         <v>1</v>
@@ -2535,7 +2538,7 @@
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B198" s="0" t="s">
         <v>1</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B199" s="0" t="s">
         <v>1</v>
@@ -2551,15 +2554,15 @@
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B201" s="0" t="s">
         <v>1</v>
@@ -2567,7 +2570,7 @@
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B202" s="0" t="s">
         <v>1</v>
@@ -2575,7 +2578,7 @@
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B203" s="0" t="s">
         <v>1</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B204" s="0" t="s">
         <v>1</v>
@@ -2591,15 +2594,15 @@
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B206" s="0" t="s">
         <v>1</v>
@@ -2607,7 +2610,7 @@
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B207" s="0" t="s">
         <v>1</v>
@@ -2615,7 +2618,7 @@
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B208" s="0" t="s">
         <v>1</v>
@@ -2623,7 +2626,7 @@
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B209" s="0" t="s">
         <v>1</v>
@@ -2631,7 +2634,7 @@
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B210" s="0" t="s">
         <v>1</v>
@@ -2639,7 +2642,7 @@
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B211" s="0" t="s">
         <v>3</v>
@@ -2647,7 +2650,7 @@
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B212" s="0" t="s">
         <v>1</v>
@@ -2655,7 +2658,7 @@
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B213" s="0" t="s">
         <v>1</v>
@@ -2663,7 +2666,7 @@
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B214" s="0" t="s">
         <v>1</v>
@@ -2671,7 +2674,7 @@
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B215" s="0" t="s">
         <v>1</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B216" s="0" t="s">
         <v>1</v>
@@ -2687,7 +2690,7 @@
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B217" s="0" t="s">
         <v>3</v>
@@ -2695,7 +2698,7 @@
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B218" s="0" t="s">
         <v>1</v>
@@ -2703,7 +2706,7 @@
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B219" s="0" t="s">
         <v>3</v>
@@ -2711,7 +2714,7 @@
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B220" s="0" t="s">
         <v>1</v>
@@ -2719,7 +2722,7 @@
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B221" s="0" t="s">
         <v>1</v>
@@ -2727,7 +2730,7 @@
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B222" s="0" t="s">
         <v>1</v>
@@ -2735,7 +2738,7 @@
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B223" s="0" t="s">
         <v>3</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B224" s="0" t="s">
         <v>1</v>
@@ -2751,7 +2754,7 @@
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B225" s="0" t="s">
         <v>1</v>
@@ -2759,7 +2762,7 @@
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B226" s="0" t="s">
         <v>1</v>
@@ -2767,7 +2770,7 @@
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B227" s="0" t="s">
         <v>3</v>
@@ -2775,7 +2778,7 @@
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B228" s="0" t="s">
         <v>3</v>
@@ -2783,7 +2786,7 @@
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B229" s="0" t="s">
         <v>1</v>
@@ -2791,7 +2794,7 @@
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B230" s="0" t="s">
         <v>1</v>
@@ -2799,7 +2802,7 @@
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B231" s="0" t="s">
         <v>3</v>
@@ -2807,7 +2810,7 @@
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B232" s="0" t="s">
         <v>1</v>
@@ -2815,7 +2818,7 @@
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B233" s="0" t="s">
         <v>1</v>
@@ -2823,7 +2826,7 @@
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B234" s="0" t="s">
         <v>1</v>
@@ -2831,7 +2834,7 @@
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B235" s="0" t="s">
         <v>1</v>
@@ -2839,7 +2842,7 @@
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B236" s="0" t="s">
         <v>1</v>
@@ -2847,7 +2850,7 @@
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B237" s="0" t="s">
         <v>3</v>
@@ -2855,7 +2858,7 @@
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B238" s="0" t="s">
         <v>3</v>
@@ -2863,7 +2866,7 @@
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B239" s="0" t="s">
         <v>1</v>
@@ -2871,7 +2874,7 @@
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B240" s="0" t="s">
         <v>1</v>
@@ -2879,7 +2882,7 @@
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B241" s="0" t="s">
         <v>3</v>
@@ -2887,7 +2890,7 @@
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B242" s="0" t="s">
         <v>1</v>
@@ -2895,7 +2898,7 @@
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B243" s="0" t="s">
         <v>3</v>
@@ -2903,7 +2906,7 @@
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B244" s="0" t="s">
         <v>1</v>
@@ -2911,7 +2914,7 @@
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B245" s="0" t="s">
         <v>3</v>
@@ -2919,7 +2922,7 @@
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B246" s="0" t="s">
         <v>1</v>
@@ -2927,7 +2930,7 @@
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B247" s="0" t="s">
         <v>1</v>
@@ -2935,7 +2938,7 @@
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B248" s="0" t="s">
         <v>1</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B249" s="0" t="s">
         <v>3</v>
@@ -2951,7 +2954,7 @@
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B250" s="0" t="s">
         <v>3</v>
@@ -2959,7 +2962,7 @@
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B251" s="0" t="s">
         <v>1</v>
@@ -2967,15 +2970,15 @@
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B253" s="0" t="s">
         <v>1</v>
@@ -2983,7 +2986,7 @@
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B254" s="0" t="s">
         <v>1</v>
@@ -2991,7 +2994,7 @@
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B255" s="0" t="s">
         <v>1</v>
@@ -2999,7 +3002,7 @@
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B256" s="0" t="s">
         <v>3</v>
@@ -3007,7 +3010,7 @@
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B257" s="0" t="s">
         <v>3</v>
@@ -3015,7 +3018,7 @@
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B258" s="0" t="s">
         <v>3</v>
@@ -3023,7 +3026,7 @@
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B259" s="0" t="s">
         <v>1</v>
@@ -3031,7 +3034,7 @@
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B260" s="0" t="s">
         <v>1</v>
@@ -3039,7 +3042,7 @@
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B261" s="0" t="s">
         <v>3</v>
@@ -3047,7 +3050,7 @@
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B262" s="0" t="s">
         <v>3</v>
@@ -3055,7 +3058,7 @@
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B263" s="0" t="s">
         <v>1</v>
@@ -3063,7 +3066,7 @@
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B264" s="0" t="s">
         <v>3</v>
@@ -3071,7 +3074,7 @@
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B265" s="0" t="s">
         <v>3</v>
@@ -3079,7 +3082,7 @@
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B266" s="0" t="s">
         <v>3</v>
@@ -3087,7 +3090,7 @@
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B267" s="0" t="s">
         <v>1</v>
@@ -3095,15 +3098,15 @@
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B269" s="0" t="s">
         <v>1</v>
@@ -3111,7 +3114,7 @@
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B270" s="0" t="s">
         <v>1</v>
@@ -3119,7 +3122,7 @@
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B271" s="0" t="s">
         <v>3</v>
@@ -3127,7 +3130,7 @@
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B272" s="0" t="s">
         <v>1</v>
@@ -3135,7 +3138,7 @@
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B273" s="0" t="s">
         <v>3</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B274" s="0" t="s">
         <v>1</v>
@@ -3151,15 +3154,15 @@
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B276" s="0" t="s">
         <v>1</v>
@@ -3167,7 +3170,7 @@
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B277" s="0" t="s">
         <v>1</v>
@@ -3175,7 +3178,7 @@
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B278" s="0" t="s">
         <v>1</v>
@@ -3183,15 +3186,15 @@
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B280" s="0" t="s">
         <v>1</v>
@@ -3199,7 +3202,7 @@
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B281" s="0" t="s">
         <v>3</v>
@@ -3207,7 +3210,7 @@
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B282" s="0" t="s">
         <v>3</v>
@@ -3215,7 +3218,7 @@
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B283" s="0" t="s">
         <v>1</v>
@@ -3223,7 +3226,7 @@
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B284" s="0" t="s">
         <v>1</v>
@@ -3231,7 +3234,7 @@
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B285" s="0" t="s">
         <v>1</v>
@@ -3239,7 +3242,7 @@
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B286" s="0" t="s">
         <v>1</v>
@@ -3247,7 +3250,7 @@
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B287" s="0" t="s">
         <v>1</v>
@@ -3255,7 +3258,7 @@
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B288" s="0" t="s">
         <v>1</v>
@@ -3263,7 +3266,7 @@
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B289" s="0" t="s">
         <v>1</v>
@@ -3271,7 +3274,7 @@
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B290" s="0" t="s">
         <v>1</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B291" s="0" t="s">
         <v>1</v>
@@ -3287,7 +3290,7 @@
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B292" s="0" t="s">
         <v>1</v>
@@ -3295,7 +3298,7 @@
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B293" s="0" t="s">
         <v>3</v>
@@ -3303,7 +3306,7 @@
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B294" s="0" t="s">
         <v>1</v>
@@ -3311,7 +3314,7 @@
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B295" s="0" t="s">
         <v>1</v>
@@ -3319,7 +3322,7 @@
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B296" s="0" t="s">
         <v>1</v>
